--- a/Path Integral Simulations.xlsx
+++ b/Path Integral Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swans\Documents\Summer Quarter 2018\Research\Path Integrals\hexane-water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27FB5F9-41B1-460A-90B8-561CABEEBFE1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08B21B0-2F61-4152-9187-E1B3FEB2D29F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12360" xr2:uid="{F0298022-D4A9-4AA7-A32D-2CC19CDAD08D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Simulation No.</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">LAMMPS in hexane-water/lammps_work/interface using interface.sbatch and in.taffi_tip4pF_waldman, restarting from simulation no. 9, 1M steps NVT at 298 K, traj every 10,000, filename newpress-nonexpanded-lammps-restart2 </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
   </si>
 </sst>
 </file>
@@ -111,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D74D844-A431-4314-9157-676E2445D68B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -463,6 +472,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -474,6 +484,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -485,6 +496,7 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -494,7 +506,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -507,6 +522,9 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -516,7 +534,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -527,7 +548,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -538,7 +562,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -551,6 +578,9 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -560,8 +590,29 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Path Integral Simulations.xlsx
+++ b/Path Integral Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swans\Documents\Summer Quarter 2018\Research\Path Integrals\hexane-water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08B21B0-2F61-4152-9187-E1B3FEB2D29F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0D111A-DF09-485D-A0A8-5B8374742D20}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12360" xr2:uid="{F0298022-D4A9-4AA7-A32D-2CC19CDAD08D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Simulation No.</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t xml:space="preserve">X </t>
+  </si>
+  <si>
+    <t>DASH simulation using run_UPDATE_8-7-2018.sh and interface_UPDATE_8-7-2018.py, 3650 TIP4P/F water molecules, 500 hexane molecules, waldman-hagler mixing between the water and hexane molecules, 1M equil steps NVT Andersen at 298 K, 1M prod steps NVT Andersen at 298 K, PI false, restart/traj every 10,000, +/- 10.0 Angstroms z change, filename newpress-smallexpanded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMMPS in hexane-water/lammps_work/interface using interface.sbatch and in.taffi_tip4pF_waldman, x length 129.2717 (equivalent to +/-10 z expansion in simulation no. 11), y length 58.67825, z length 58.45467, 3650 TIP4P/F water molcules, 500 hexane molecules, waldman-hagler mixing, NVT with NoseHoover, 298 K, 2M steps, PI false, restart/traj every 10,000, filename newpress-smallexpanded-lammps. </t>
+  </si>
+  <si>
+    <t>DASH simulation using run_UPDATE_8-7-2018.sh and interface_UPDATE_8-7-2018.py, 3650 TIP4P/F water molecules, 500 hexane molecules, waldman-hagler mixing between the water and hexane molecules, 0 equil steps, 2M prod steps NPT Andersen/Berendsen at 298 K and 1 atm, PI false, data every 10, restart/traj every 10,000, NO Angstroms z change, filename newpress-NPT</t>
+  </si>
+  <si>
+    <t>LAMMPS simulation interface.sbatch and in.taffi_tip4pF_waldman, input_restart_taffi_tip4pF_modified.txt, 3650 TIP4P/F water molcules, 500 hexane molecules, waldman-hagler mixing, 2M steps NPT NoseHoover at 298 K and 1.0 atm, pressures every 10, traj every 10,000, filename newpress-NPT-lammps.</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_8-7-2018.sh and tip4pF_8-7-2018.py, 3650 TIP4P/F water molecules, 2M steps NPT Andersen/Berendsen at 298 K and 1.0 atm, initial density 0.997, PI false, data every 10, restart/traj every 10,000, filename newpress-NPT-water</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_8-7-2018.sh and tip4pF_8-7-2018.py, 3650 TIP4P/F water molecules, 2M steps NVT Andersen at 298 K, initial density 0.997, PI false, data every 10, restart/traj every 10,000, filename newpress-NVT-water</t>
   </si>
 </sst>
 </file>
@@ -438,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D74D844-A431-4314-9157-676E2445D68B}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -597,21 +615,75 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
   </sheetData>

--- a/Path Integral Simulations.xlsx
+++ b/Path Integral Simulations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swans\Documents\Summer Quarter 2018\Research\Path Integrals\hexane-water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0D111A-DF09-485D-A0A8-5B8374742D20}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F36EB-E04A-481C-8516-5F0F9320F4D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12360" xr2:uid="{F0298022-D4A9-4AA7-A32D-2CC19CDAD08D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Simulation No.</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>DASH simulation in dash_work/water using run_8-7-2018.sh and tip4pF_8-7-2018.py, 3650 TIP4P/F water molecules, 2M steps NVT Andersen at 298 K, initial density 0.997, PI false, data every 10, restart/traj every 10,000, filename newpress-NVT-water</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-1</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MC-1</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MC-1</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo at 298 K and 1.01325 bar, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-1</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo at 298 K and 1.01325 bar, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MM-1</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo at 298 K and 1.01325 bar, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MM-1</t>
   </si>
 </sst>
 </file>
@@ -454,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D74D844-A431-4314-9157-676E2445D68B}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -686,6 +704,76 @@
       </c>
       <c r="D17" s="1"/>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Path Integral Simulations.xlsx
+++ b/Path Integral Simulations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swans\Documents\Summer Quarter 2018\Research\Path Integrals\hexane-water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F36EB-E04A-481C-8516-5F0F9320F4D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909440A3-7D95-401C-BAD7-C14514F9EE20}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12360" xr2:uid="{F0298022-D4A9-4AA7-A32D-2CC19CDAD08D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Simulation No.</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Running</t>
   </si>
   <si>
-    <t>Submitted</t>
-  </si>
-  <si>
     <t xml:space="preserve">DASH simulation using run_UPDATE.py and interface_UPDATE.py, filename fulldata-NPT-298, 1M steps equil NPT 298 K 1 atm, 6M steps prod NPT 298 K 1 atm, no PI, data every 10, waldman, restart/traj every 1,000, no z change, no restart.  </t>
   </si>
   <si>
@@ -105,19 +102,64 @@
     <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-1</t>
   </si>
   <si>
-    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MC-1</t>
-  </si>
-  <si>
-    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MC-1</t>
-  </si>
-  <si>
     <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo at 298 K and 1.01325 bar, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-1</t>
   </si>
   <si>
-    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo at 298 K and 1.01325 bar, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MM-1</t>
-  </si>
-  <si>
-    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo at 298 K and 1.01325 bar, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MM-1</t>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MC-2</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MC-3</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo at 298 K and 1.01325 bar, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MM-2</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo at 298 K and 1.01325 bar, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MM-3</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 64 bead, data every 1000, restart/traj every 50,000, filename MC-13</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo at 298 K and 1.01325 bar, initial density 0.997, PI 64 bead, data every 1000, restart/traj every 50,000, filename MM-13</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT Berendsen/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename B-1</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT Berendsen/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename B-2</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT Berendsen/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename B-3</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT Berendsen/Andersen at 298 K and 1.0 atm, initial density 0.997, PI None, data every 1000, restart/traj every 50,000, filename no-PI-B</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI None, data every 1000, restart/traj every 50,000, filename no-PI-B</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 12 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-4</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 12 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MC-5</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 12 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MC-6</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 1.2 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-4</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 1.2 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MM-5</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 1.2 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MM-6</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -472,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D74D844-A431-4314-9157-676E2445D68B}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -484,7 +526,7 @@
     <col min="2" max="2" width="56.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,228 +537,250 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -724,11 +788,14 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -736,42 +803,199 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>3</v>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Path Integral Simulations.xlsx
+++ b/Path Integral Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swans\Documents\Summer Quarter 2018\Research\Path Integrals\hexane-water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909440A3-7D95-401C-BAD7-C14514F9EE20}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7513A5D-4E26-4E59-93AF-CE4E4C80D914}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12360" xr2:uid="{F0298022-D4A9-4AA7-A32D-2CC19CDAD08D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>Simulation No.</t>
   </si>
@@ -138,9 +138,6 @@
     <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT Berendsen/Andersen at 298 K and 1.0 atm, initial density 0.997, PI None, data every 1000, restart/traj every 50,000, filename no-PI-B</t>
   </si>
   <si>
-    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI None, data every 1000, restart/traj every 50,000, filename no-PI-B</t>
-  </si>
-  <si>
     <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 12 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-4</t>
   </si>
   <si>
@@ -160,6 +157,69 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI None, data every 1000, restart/traj every 50,000, filename no-PI-MC</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 4M steps with time step 0.25, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-7</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 4M steps with time step 0.25, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MC-8</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 4M steps with time step 0.25, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MC-9</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 4M steps with time step 0.00025 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-7</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 4M steps with time step 0.00025 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MM-8</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 4M steps with time step 0.00025 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MM-9</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 1M steps with time step 1.0, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-10</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 1M steps with time step 1.0, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MC-11</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 1M steps with time step 1.0, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MC-12</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 1M steps with time step 0.001 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-10</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 1M steps with time step 0.001 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 16 bead, data every 1000, restart/traj every 50,000, filename MM-11</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 1M steps with time step 0.001 ps, rCut 0.9 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MM-12</t>
+  </si>
+  <si>
+    <t>NVT simulation 1 bead OpenMM</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NVT Andersen at 298 K, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-NVT-1bead</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, NVT RPMD/PILE at 298 K, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-NVT-1bead</t>
+  </si>
+  <si>
+    <t>"" in DASH</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 15 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-rCut15</t>
+  </si>
+  <si>
+    <t>Check rCut 15 in DASH</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 1.5 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-rCut15</t>
+  </si>
+  <si>
+    <t>Check rCut 15 in OpenMM</t>
   </si>
 </sst>
 </file>
@@ -514,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D74D844-A431-4314-9157-676E2445D68B}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -874,7 +934,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -885,7 +945,10 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -918,7 +981,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -926,10 +992,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -937,10 +1006,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -948,54 +1020,257 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
         <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Path Integral Simulations.xlsx
+++ b/Path Integral Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swans\Documents\Summer Quarter 2018\Research\Path Integrals\hexane-water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7513A5D-4E26-4E59-93AF-CE4E4C80D914}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0313047A-0D00-4181-9B4B-F7F87028074C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12360" xr2:uid="{F0298022-D4A9-4AA7-A32D-2CC19CDAD08D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
   <si>
     <t>Simulation No.</t>
   </si>
@@ -156,9 +156,6 @@
     <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 1.2 nanometers, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.997, PI 32 bead, data every 1000, restart/traj every 50,000, filename MM-6</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.997, PI None, data every 1000, restart/traj every 50,000, filename no-PI-MC</t>
   </si>
   <si>
@@ -220,6 +217,36 @@
   </si>
   <si>
     <t>Check rCut 15 in OpenMM</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.5, rCut 9 A, coulomb False, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-0charge</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 2M steps with time step 0.0005 ps, rCut 0.9 nanometers, coulomb False, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-0charge</t>
+  </si>
+  <si>
+    <t>Check 0 charge NPT DASH</t>
+  </si>
+  <si>
+    <t>Check 0 charge NPT OpenMM</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 10M steps with time step 0.5, rCut 9 A, coulomb False, NPT MonteCarlo/Andersen at 298 K and 1.0 atm, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-0charge</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 10M steps with time step 0.0005 ps, rCut 0.9 nanometers, coulomb False, NPT RPMDMonteCarlo/PILE at 298 K and 1.01325 bar, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-0charge</t>
+  </si>
+  <si>
+    <t>DASH simulation in dash_work/water using run_9-26-2018.sh and tip4pF_9-26-2018.py, 1000 q-TIP4P/F water molecules, 10M steps with time step 0.5, rCut 9 A, coulomb False, NVT Andersen at 298 K, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MC-0charge-NVT</t>
+  </si>
+  <si>
+    <t>OpenMM simulation in /home/swansonk1/openmm using run_openmm.sh and pimd_modified.py, 1000 q-TIP4P/F water molecules, 10M steps with time step 0.0005 ps, rCut 0.9 nanometers, coulomb False, NVT RPMD/PILE at 298 K, initial density 0.9979734044480487, PI 1 bead, data every 1000, restart/traj every 50,000, filename MM-0charge</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encountered "illegal memory access" after 100 turns, so tried restarting it.  After that, got nan's in the .xyz file as well as the energy recording and the temperature recording, although density did get recorded.  Over about 190,000 turns, the density dropped from 0.997 to 0.855.   </t>
   </si>
 </sst>
 </file>
@@ -574,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D74D844-A431-4314-9157-676E2445D68B}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -959,7 +986,10 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -970,7 +1000,10 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -992,7 +1025,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1090,10 +1123,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -1101,10 +1137,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -1112,10 +1151,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -1123,10 +1165,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -1134,10 +1179,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -1145,10 +1193,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
@@ -1156,10 +1207,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -1167,10 +1221,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
@@ -1178,10 +1235,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
@@ -1189,10 +1252,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
@@ -1200,10 +1266,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -1211,66 +1280,165 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
       </c>
       <c r="D52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
